--- a/data/01_test_posters.xlsx
+++ b/data/01_test_posters.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/movie_poster_neural_network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5A0345-4701-7B42-8DE9-7D0B6C8E7736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C6604-37B5-8C44-B377-4EBF38CFE047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="5640" windowWidth="20820" windowHeight="15960" xr2:uid="{23FCE314-28FA-474E-B5FD-4F7069FDCCF2}"/>
+    <workbookView xWindow="29220" yWindow="460" windowWidth="14660" windowHeight="20580" xr2:uid="{23FCE314-28FA-474E-B5FD-4F7069FDCCF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -554,7 +554,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
